--- a/1.Database Design/JAVA 20 - Trần Phước Thành - Database Design.xlsx
+++ b/1.Database Design/JAVA 20 - Trần Phước Thành - Database Design.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6987EC7-71C7-4515-B696-2437056510CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -25,18 +24,27 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={E7211162-DE0E-410A-8C7F-49B919CB587A}</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{E7211162-DE0E-410A-8C7F-49B919CB587A}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nhân viên phụ trách cho tình trạng đơn hàng
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -44,12 +52,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="S13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,17 +110,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
-    <author>tc={60DC5D74-2615-4FEF-BFAB-6545C6361F9E}</author>
-    <author>tc={2FA75419-8410-487C-B1BC-8CCFDA150F9B}</author>
-    <author>tc={0E88F402-66E8-4C27-90A1-9363F4A5299B}</author>
-    <author>tc={798CF2D4-2E7B-48C4-8D16-5D288974D408}</author>
-    <author>tc={38456966-9ABF-40FF-8702-70C003B001DF}</author>
   </authors>
   <commentList>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="W4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,15 +139,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="1" shapeId="0" xr:uid="{60DC5D74-2615-4FEF-BFAB-6545C6361F9E}">
+    <comment ref="J10" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Amount of items still in warehouse</t>
+        </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="W13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,38 +180,74 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="2" shapeId="0" xr:uid="{2FA75419-8410-487C-B1BC-8CCFDA150F9B}">
+    <comment ref="B102" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ORDER</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="3" shapeId="0" xr:uid="{0E88F402-66E8-4C27-90A1-9363F4A5299B}">
+    <comment ref="C102" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ITEM
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="C112" authorId="4" shapeId="0" xr:uid="{798CF2D4-2E7B-48C4-8D16-5D288974D408}">
+    <comment ref="C112" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ORDER</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D112" authorId="5" shapeId="0" xr:uid="{38456966-9ABF-40FF-8702-70C003B001DF}">
+    <comment ref="D112" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ITEM
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -207,18 +255,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
-    <author>tc={ECDC740F-86ED-46E3-9132-C062E3C238F4}</author>
-    <author>tc={A455E74A-E01C-4FA0-9E25-F3EEFC89F2D4}</author>
-    <author>tc={5442799C-ABCF-466D-94A0-A60270164833}</author>
-    <author>tc={D77AB19F-1A1E-46DD-BC37-9C80221DE81A}</author>
-    <author>tc={BF70CA20-B203-4626-A5A1-F0CD01E1ADF6}</author>
-    <author>tc={52685A0F-F2C4-4126-84A3-987A0B9902D1}</author>
   </authors>
   <commentList>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{E5A75E30-2E3A-4AB1-AAAC-49ABFA6D46B4}">
+    <comment ref="Y4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,23 +284,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="1" shapeId="0" xr:uid="{ECDC740F-86ED-46E3-9132-C062E3C238F4}">
+    <comment ref="L10" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Amount of items still in warehouse</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="2" shapeId="0" xr:uid="{A455E74A-E01C-4FA0-9E25-F3EEFC89F2D4}">
+    <comment ref="L11" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Sales price of item, size</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Y13" authorId="0" shapeId="0" xr:uid="{15F5456E-69F2-4695-A9C2-9373FD181B27}">
+    <comment ref="Y13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,38 +342,74 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="3" shapeId="0" xr:uid="{5442799C-ABCF-466D-94A0-A60270164833}">
+    <comment ref="B102" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ORDER</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="4" shapeId="0" xr:uid="{D77AB19F-1A1E-46DD-BC37-9C80221DE81A}">
+    <comment ref="C102" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ITEM
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="C112" authorId="5" shapeId="0" xr:uid="{BF70CA20-B203-4626-A5A1-F0CD01E1ADF6}">
+    <comment ref="C112" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ORDER</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D112" authorId="6" shapeId="0" xr:uid="{52685A0F-F2C4-4126-84A3-987A0B9902D1}">
+    <comment ref="D112" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Là khóa ngoại liên kết đến khóa chính ID của bảng ITEM
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -321,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="250">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -497,7 +593,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -507,7 +603,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,7 +615,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,7 +625,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,7 +635,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,7 +645,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,7 +666,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,7 +676,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +686,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -600,7 +696,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +711,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,7 +738,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,7 +748,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +758,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +768,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -684,7 +780,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -694,7 +790,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1091,7 +1187,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,7 +1197,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1214,9 +1310,6 @@
     <t>ORDER - ITEM_DETAIL</t>
   </si>
   <si>
-    <t>ITEM_DETAIL_ID</t>
-  </si>
-  <si>
     <t>Đang xác thực đơn hàng</t>
   </si>
   <si>
@@ -1275,26 +1368,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1314,34 +1407,34 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1349,21 +1442,21 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="18"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1569,30 +1662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,6 +1688,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,46 +2052,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E22" activeCellId="1" sqref="E21 E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="26.59765625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="22.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69921875" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="G2" s="46" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="G2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2015,10 +2108,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+    <row r="4" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2035,8 +2128,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
@@ -2067,7 +2160,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2098,7 +2191,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
@@ -2129,7 +2222,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
@@ -2158,7 +2251,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
@@ -2185,7 +2278,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>78</v>
       </c>
@@ -2208,7 +2301,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -2223,7 +2316,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2238,7 +2331,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
@@ -2253,7 +2346,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -2268,7 +2361,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="20" t="s">
@@ -2283,7 +2376,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2296,7 +2389,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2309,7 +2402,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2322,8 +2415,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>91</v>
       </c>
@@ -2340,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2369,7 +2462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="1">
         <v>3</v>
       </c>
@@ -2394,7 +2487,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="1">
         <v>1</v>
       </c>
@@ -2405,30 +2498,30 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D4"/>
@@ -2441,41 +2534,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:P19"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.59765625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="22.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69921875" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2483,10 +2576,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+    <row r="4" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2509,7 +2602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2550,7 +2643,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2679,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>72</v>
       </c>
@@ -2622,7 +2715,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>73</v>
       </c>
@@ -2659,7 +2752,7 @@
       <c r="M8" s="3"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>75</v>
       </c>
@@ -2686,7 +2779,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
@@ -2716,7 +2809,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>77</v>
       </c>
@@ -2738,7 +2831,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>130</v>
       </c>
@@ -2756,7 +2849,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>81</v>
@@ -2775,7 +2868,7 @@
       <c r="M13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="25" t="s">
@@ -2793,7 +2886,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2809,7 +2902,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2825,7 +2918,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2841,7 +2934,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2855,7 +2948,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2869,13 +2962,13 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2898,8 +2991,8 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="56"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +3005,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -2925,8 +3018,8 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -2941,8 +3034,8 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
+    <row r="25" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="58"/>
       <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +3048,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
         <v>21</v>
@@ -2966,10 +3059,10 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -2977,7 +3070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -2994,7 +3087,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -3011,7 +3104,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3028,7 +3121,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -3045,18 +3138,18 @@
         <v>35715</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>115</v>
       </c>
@@ -3082,7 +3175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>1</v>
       </c>
@@ -3108,7 +3201,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>2</v>
       </c>
@@ -3134,7 +3227,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <v>3</v>
       </c>
@@ -3151,7 +3244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>79</v>
       </c>
@@ -3162,7 +3255,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
@@ -3182,7 +3275,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -3199,7 +3292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -3213,7 +3306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>3</v>
       </c>
@@ -3227,7 +3320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>4</v>
       </c>
@@ -3238,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>5</v>
       </c>
@@ -3252,7 +3345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>6</v>
       </c>
@@ -3272,7 +3365,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>7</v>
       </c>
@@ -3295,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>8</v>
       </c>
@@ -3391,45 +3484,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="22.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="1" customWidth="1"/>
-    <col min="17" max="105" width="22.7109375" style="1" customWidth="1"/>
-    <col min="106" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.59765625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="22.69921875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.59765625" style="1" customWidth="1"/>
+    <col min="17" max="105" width="22.69921875" style="1" customWidth="1"/>
+    <col min="106" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+    <row r="3" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -3439,10 +3532,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+    <row r="4" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -3470,7 +3563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
@@ -3535,7 +3628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
@@ -3572,7 +3665,7 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>72</v>
       </c>
@@ -3609,7 +3702,7 @@
       <c r="M7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>73</v>
       </c>
@@ -3647,7 +3740,7 @@
       <c r="Q8" s="3"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>75</v>
       </c>
@@ -3675,7 +3768,7 @@
       <c r="M9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
@@ -3706,7 +3799,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>77</v>
       </c>
@@ -3731,7 +3824,7 @@
       <c r="M11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>130</v>
       </c>
@@ -3750,7 +3843,7 @@
       <c r="M12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="25" t="s">
@@ -3768,7 +3861,7 @@
       <c r="Q13" s="3"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="25" t="s">
@@ -3787,7 +3880,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3804,7 +3897,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3821,7 +3914,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3838,7 +3931,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3853,7 +3946,7 @@
       <c r="M18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3868,8 +3961,8 @@
       <c r="M19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="19" t="s">
         <v>152</v>
@@ -3889,7 +3982,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="19" t="s">
         <v>153</v>
@@ -3909,7 +4002,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="19" t="s">
         <v>41</v>
       </c>
@@ -3928,7 +4021,7 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>42</v>
       </c>
@@ -3945,7 +4038,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
         <v>154</v>
       </c>
@@ -3960,51 +4053,51 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
         <v>155</v>
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
         <v>72</v>
       </c>
@@ -4018,7 +4111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -4032,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>2</v>
       </c>
@@ -4046,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>3</v>
       </c>
@@ -4060,7 +4153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>4</v>
       </c>
@@ -4074,19 +4167,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="s">
         <v>72</v>
       </c>
@@ -4094,7 +4187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -4102,7 +4195,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -4110,7 +4203,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -4118,15 +4211,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
@@ -4685,10 +4778,10 @@
       <c r="B111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="50"/>
+      <c r="D111" s="59"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
@@ -4800,49 +4893,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79120E3-8B85-45B8-906C-9F3770585442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="35.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="22.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" style="1" customWidth="1"/>
-    <col min="19" max="107" width="22.7109375" style="1" customWidth="1"/>
-    <col min="108" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.296875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="35.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="22.69921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.59765625" style="1" customWidth="1"/>
+    <col min="19" max="107" width="22.69921875" style="1" customWidth="1"/>
+    <col min="108" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="55"/>
+    <row r="3" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -4853,10 +4946,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+    <row r="4" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="18" t="s">
         <v>231</v>
       </c>
@@ -4888,7 +4981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
@@ -4954,11 +5047,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+    <row r="6" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="44" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4967,38 +5060,38 @@
       <c r="E6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="44" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="44" t="s">
         <v>133</v>
       </c>
       <c r="O6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+    <row r="7" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -5040,8 +5133,8 @@
       <c r="O7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+    <row r="8" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5084,8 +5177,8 @@
       <c r="S8" s="3"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+    <row r="9" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -5095,14 +5188,14 @@
         <v>90</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>142</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>109</v>
@@ -5118,8 +5211,8 @@
       <c r="O9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+    <row r="10" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5128,7 +5221,7 @@
       <c r="D10" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="46" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -5155,8 +5248,8 @@
       <c r="W10" s="9"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
+    <row r="11" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -5168,8 +5261,8 @@
       <c r="E11" s="25"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="56" t="s">
-        <v>250</v>
+      <c r="H11" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>230</v>
@@ -5183,8 +5276,8 @@
       <c r="O11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
+    <row r="12" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="3"/>
@@ -5202,7 +5295,7 @@
       <c r="O12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5220,7 +5313,7 @@
       <c r="S13" s="3"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5239,7 +5332,7 @@
       <c r="W14" s="9"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5258,7 +5351,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5277,7 +5370,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -5296,7 +5389,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5313,7 +5406,7 @@
       <c r="O18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5330,8 +5423,8 @@
       <c r="O19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="19" t="s">
         <v>152</v>
@@ -5353,7 +5446,7 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="19" t="s">
         <v>153</v>
@@ -5375,7 +5468,7 @@
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="19" t="s">
         <v>41</v>
       </c>
@@ -5396,7 +5489,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>42</v>
       </c>
@@ -5415,7 +5508,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
         <v>154</v>
       </c>
@@ -5432,52 +5525,52 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="32" t="s">
         <v>155</v>
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="56"/>
-    </row>
-    <row r="35" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
         <v>72</v>
       </c>
@@ -5492,7 +5585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -5507,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>2</v>
       </c>
@@ -5522,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>3</v>
       </c>
@@ -5537,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>4</v>
       </c>
@@ -5552,19 +5645,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="s">
         <v>72</v>
       </c>
@@ -5572,7 +5665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -5580,7 +5673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -5588,7 +5681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -5596,15 +5689,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
@@ -5630,7 +5723,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="56"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
@@ -5728,7 +5821,7 @@
       <c r="D65" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="57"/>
+      <c r="E65" s="49"/>
       <c r="G65" s="36" t="s">
         <v>198</v>
       </c>
@@ -5748,7 +5841,7 @@
       <c r="D66" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="56"/>
+      <c r="E66" s="48"/>
       <c r="G66" s="3" t="s">
         <v>72</v>
       </c>
@@ -5770,7 +5863,7 @@
       <c r="D67" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="56"/>
+      <c r="E67" s="48"/>
       <c r="G67" s="3">
         <v>1</v>
       </c>
@@ -5792,7 +5885,7 @@
       <c r="D68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="56"/>
+      <c r="E68" s="48"/>
       <c r="G68" s="3">
         <v>2</v>
       </c>
@@ -5814,7 +5907,7 @@
       <c r="D69" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="56"/>
+      <c r="E69" s="48"/>
       <c r="G69" s="3">
         <v>3</v>
       </c>
@@ -5887,7 +5980,7 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="26" t="s">
@@ -6004,7 +6097,7 @@
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="56"/>
+      <c r="E91" s="48"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
       <c r="I91" s="39"/>
@@ -6133,7 +6226,7 @@
       <c r="D102" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="56"/>
+      <c r="E102" s="48"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -6145,7 +6238,7 @@
       <c r="D103" s="3">
         <v>10</v>
       </c>
-      <c r="E103" s="56"/>
+      <c r="E103" s="48"/>
       <c r="F103" s="12"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -6158,7 +6251,7 @@
       <c r="D104" s="3">
         <v>12</v>
       </c>
-      <c r="E104" s="56"/>
+      <c r="E104" s="48"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
@@ -6170,7 +6263,7 @@
       <c r="D105" s="3">
         <v>65</v>
       </c>
-      <c r="E105" s="56"/>
+      <c r="E105" s="48"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
@@ -6182,7 +6275,7 @@
       <c r="D106" s="3">
         <v>10</v>
       </c>
-      <c r="E106" s="56"/>
+      <c r="E106" s="48"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
@@ -6194,7 +6287,7 @@
       <c r="D107" s="3">
         <v>12</v>
       </c>
-      <c r="E107" s="56"/>
+      <c r="E107" s="48"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
@@ -6206,17 +6299,17 @@
       <c r="D108" s="3">
         <v>65</v>
       </c>
-      <c r="E108" s="56"/>
+      <c r="E108" s="48"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="E111" s="58"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="50"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
@@ -6324,10 +6417,10 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="59" t="s">
+      <c r="B123" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="51" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6350,13 +6443,13 @@
         <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E125" s="3">
         <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
@@ -6364,27 +6457,27 @@
         <v>2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="61.2" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>3</v>
       </c>
-      <c r="C127" s="60" t="s">
-        <v>239</v>
+      <c r="C127" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="E127" s="3">
         <v>3</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
@@ -6392,13 +6485,13 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E128" s="3">
         <v>4</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
@@ -6406,13 +6499,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E129" s="3">
         <v>5</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
@@ -6420,7 +6513,7 @@
         <v>6</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
@@ -6428,12 +6521,12 @@
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="59" t="s">
-        <v>245</v>
+      <c r="B133" s="51" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
@@ -6444,13 +6537,13 @@
         <v>197</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
@@ -6467,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
@@ -6484,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
@@ -6501,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
@@ -6518,7 +6611,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
@@ -6535,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
@@ -6543,7 +6636,7 @@
         <v>6</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
@@ -6552,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
@@ -6560,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D141" s="3">
         <v>2</v>
@@ -6569,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
@@ -6577,7 +6670,7 @@
         <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D142" s="3">
         <v>7</v>
@@ -6586,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6601,17 +6694,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="255.59765625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6722,19 +6815,19 @@
     <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6742,18 +6835,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D63DB90-5A83-43F6-9FC7-66B118A6C626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="13" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" customWidth="1"/>
+    <col min="5" max="13" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -6800,7 +6893,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="60" t="s">
         <v>226</v>
       </c>
       <c r="D6" s="43" t="s">
@@ -6809,7 +6902,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="43" t="s">
         <v>227</v>
       </c>

--- a/1.Database Design/JAVA 20 - Trần Phước Thành - Database Design.xlsx
+++ b/1.Database Design/JAVA 20 - Trần Phước Thành - Database Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="481" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="251">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -1363,6 +1363,9 @@
   </si>
   <si>
     <t>UPDATED_AT</t>
+  </si>
+  <si>
+    <t>ITEM_DETAIL_ID</t>
   </si>
 </sst>
 </file>
@@ -4896,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -6221,7 +6224,7 @@
         <v>197</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>86</v>
@@ -6697,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
@@ -6838,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
